--- a/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,27 +477,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -506,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +519,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,7 +529,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -570,27 +573,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>EC262</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -607,22 +610,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -634,27 +637,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>EC261</t>
         </is>
       </c>
     </row>
@@ -671,22 +674,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -701,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,27 +809,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**HSS_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -853,32 +856,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**EC262**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -900,27 +903,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -994,22 +997,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA263**</t>
+          <t>**EC262**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1019,7 +1022,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1029,7 +1032,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1041,47 +1044,2105 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>**MA262**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**CS307**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>**MA263**</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Total Courses: 9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Complete: 2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rate: 22.2%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lectures: 18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[WARN] 7 issues</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total Courses: 6</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Complete: 2</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rate: 33.3%</t>
+          <t>3/1/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lectures: 12</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[WARN] 4 issues</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 6, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/9 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>35.7%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 71.4%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 34.7/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Signals &amp; Systems</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2-1-0-0-3</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Deepak K T</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Random Processes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Electronics Systems design - 1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
@@ -9,9 +9,16 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Allocation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Basket_Courses" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Utilization" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MA263 [L403]</t>
         </is>
       </c>
     </row>
@@ -514,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MA261 [L407]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -524,12 +531,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC262 [C303]</t>
         </is>
       </c>
     </row>
@@ -578,22 +585,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EC261 [C004]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA263 [C004]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -605,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,7 +649,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -652,7 +659,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC262 [C205]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -669,17 +676,1553 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [C202]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MA261 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC261 [C004]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MA263 [L403]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA261 [L407]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS307 [C004]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>EC262 [C303]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EC261 [C004]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA263 [C004]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS307 [C004]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>EC262 [C205]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L206]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -689,7 +2232,360 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC262 (Lab) [L206]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -762,27 +2658,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -797,12 +2693,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -903,34 +2799,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**EC261**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
@@ -938,39 +2834,39 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -997,32 +2893,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**EC262**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1037,24 +2933,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1084,34 +2980,34 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L407, C004</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**MA263**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1126,34 +3022,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L403, C004</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**MA263**</t>
+          <t>**EC262**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1163,7 +3059,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1173,12 +3069,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C205, C303, C202</t>
         </is>
       </c>
     </row>
@@ -1235,6 +3131,5567 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sessions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Courses Assigned</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Courses</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization (Sessions/Day)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MA261, EC261 (Tutorial), MA262...</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>EC261</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MA262 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>EC262</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>EC263</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1823,7 +9280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1892,7 +9349,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-13 16:20</t>
+          <t>2026-01-18 11:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1956,12 +9413,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/35</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 0.0%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -2014,7 +9471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2134,10 +9591,8 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2208,10 +9663,8 @@
           <t>Multivariable Calculus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2282,10 +9735,8 @@
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F4" t="n">
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2356,10 +9807,8 @@
           <t>HSS/IE</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2430,10 +9879,8 @@
           <t>Signals &amp; Systems</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F6" t="n">
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2504,10 +9951,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2578,10 +10023,8 @@
           <t>User Interaction (Minor)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F8" t="n">
+        <v>4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2652,10 +10095,8 @@
           <t>Random Processes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F9" t="n">
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2726,10 +10167,8 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F10" t="n">
+        <v>2</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2800,10 +10239,8 @@
           <t>Electronics Systems design - 1</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F11" t="n">
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2874,10 +10311,8 @@
           <t>Introduction of RFIC</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F12" t="n">
+        <v>2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2948,10 +10383,8 @@
           <t>Electronic Systems engineering</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F13" t="n">
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3022,10 +10455,8 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F14" t="n">
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3096,10 +10527,8 @@
           <t>2D Computer Graphics</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3143,6 +10572,868 @@
       <c r="P15" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Courses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ASD352, EC251, EC252, EC254, CS152, CS251, CS253</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DE352, CS162</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4411,7 +4411,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -4470,7 +4470,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4529,12 +4529,12 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -4554,29 +4554,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -4588,7 +4584,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -4613,12 +4609,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4644,7 +4640,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>C004</t>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -4672,27 +4672,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4703,15 +4703,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -4731,27 +4735,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4762,15 +4766,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -4790,27 +4798,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -4821,15 +4829,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -4849,27 +4861,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4880,15 +4892,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -4908,27 +4924,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4939,15 +4955,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -4967,12 +4987,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5010,7 +5030,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -5030,27 +5050,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5061,19 +5081,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MA263</t>
         </is>
       </c>
     </row>
@@ -5093,27 +5109,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5124,19 +5140,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5156,27 +5168,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5187,19 +5199,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5219,27 +5227,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5250,19 +5258,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -5282,27 +5286,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5313,19 +5317,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -5345,27 +5345,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5376,19 +5376,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -5413,22 +5409,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5442,12 +5438,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -5472,22 +5468,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5501,12 +5497,12 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC262</t>
         </is>
       </c>
     </row>
@@ -5526,27 +5522,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5557,15 +5553,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -5585,27 +5585,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5616,15 +5616,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -5644,27 +5648,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5675,15 +5679,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -5703,27 +5711,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5734,15 +5742,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5774,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
@@ -5789,15 +5805,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -5817,27 +5837,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -5848,15 +5868,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC263</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5876,27 +5900,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -5907,15 +5931,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -5935,27 +5963,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -5966,19 +5994,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5998,27 +6022,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6029,19 +6053,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6061,27 +6081,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6092,19 +6112,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -6124,27 +6140,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6155,19 +6171,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -6187,27 +6199,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6218,19 +6230,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6250,27 +6258,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6281,19 +6289,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -6313,27 +6317,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6344,19 +6348,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -6376,12 +6376,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6391,12 +6391,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6407,19 +6407,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6478,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6541,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6604,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6667,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6730,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6793,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6813,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6860,7 +6856,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -6880,27 +6876,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I57" t="b">
@@ -6911,1778 +6907,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>3</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>3</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>3</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>3</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>3</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>3</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>3</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>EC261</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>EC261</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>3</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>3</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>3</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>MA262 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>3</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>3</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
           <t>EC263 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>3</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MA261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>3</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>3</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>EC263</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>3</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,224 +479,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA263 [L403]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>EC261 [C102]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC262 [C303]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC262 [C102]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C004]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>CS307 [C203]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>EC261 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC262 [C205]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC261 [C102]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EC262 [C102]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L206]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [C202]</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L206]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C102]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C102]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C102]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C102]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -778,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -808,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -876,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -910,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -944,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>63.74999999999999</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1216,16 +1280,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1284,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1420,16 +1484,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1522,16 +1586,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1774,16 +1838,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1910,16 +1974,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1972,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,179 +2079,179 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA263 [L403]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [L407]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>EC261 [C102]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC262 [C303]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>EC262 [C102]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C004]</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>CS307 [C203]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC261 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS307 [C004]</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
@@ -2195,44 +2259,108 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC262 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EC261 [C102]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EC262 [C102]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L105]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial) [C004]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS307 (Tutorial) [C101]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>EC262 (Lab) [L105]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C102]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C102]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C102]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C102]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2275,12 +2403,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2292,114 +2420,102 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -2407,12 +2523,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -2420,19 +2536,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2442,7 +2554,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2455,7 +2567,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2468,7 +2580,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2476,12 +2588,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2489,103 +2601,119 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2826,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2752,34 +2880,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
@@ -2792,7 +2920,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2967,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102, C101</t>
         </is>
       </c>
     </row>
@@ -2933,34 +3061,34 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203, C102, C101</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**ELECTIVE_B4**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2980,7 +3108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L407, C004</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3155,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>L403, C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3202,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C205, C303, C202</t>
+          <t>C102, L206</t>
         </is>
       </c>
     </row>
@@ -3194,26 +3322,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3221,33 +3344,33 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA261, EC261 (Tutorial), MA262...</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3256,7 +3379,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3264,23 +3387,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MA262, MA261</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3295,11 +3418,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3307,23 +3430,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS307 (Tutorial), EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3338,11 +3461,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3350,23 +3473,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC262, MINOR: Design, EC261...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3376,7 +3499,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3397,7 +3520,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3409,26 +3532,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3440,12 +3563,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3534,6 +3657,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3556,22 +3684,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -3585,12 +3713,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3615,22 +3748,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -3644,12 +3777,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3674,24 +3812,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -3703,12 +3837,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3728,27 +3867,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -3762,12 +3901,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3931,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3802,12 +3946,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -3821,12 +3965,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3846,27 +3995,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -3880,12 +4029,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3910,22 +4064,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -3939,12 +4093,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3964,7 +4123,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3974,17 +4133,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -3998,12 +4157,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4023,27 +4187,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4057,12 +4221,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4082,27 +4251,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4116,12 +4285,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4141,27 +4315,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -4175,12 +4349,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4200,12 +4379,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4220,7 +4399,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -4234,12 +4413,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4259,7 +4443,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -4274,12 +4458,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -4293,12 +4477,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4318,12 +4507,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4352,12 +4541,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4377,27 +4571,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4411,12 +4605,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4436,27 +4635,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4470,12 +4669,17 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4699,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4523,18 +4727,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4554,7 +4763,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4564,32 +4773,41 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4609,27 +4827,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4637,22 +4855,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4672,27 +4891,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4700,22 +4919,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4735,27 +4955,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4763,22 +4983,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4798,27 +5019,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -4826,22 +5047,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4861,27 +5083,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4889,22 +5111,23 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4924,27 +5147,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4952,22 +5175,23 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4987,27 +5211,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -5015,22 +5239,23 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -5050,12 +5275,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5078,18 +5303,23 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5109,27 +5339,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5143,14 +5373,15 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
-        </is>
-      </c>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5168,29 +5399,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5202,14 +5429,15 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5227,27 +5455,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5258,15 +5486,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5286,22 +5523,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5317,15 +5554,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5345,22 +5591,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5376,15 +5622,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5404,29 +5659,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -5435,15 +5686,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5463,12 +5723,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5494,15 +5754,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5791,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -5532,17 +5801,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5560,12 +5829,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5859,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -5595,17 +5869,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5623,12 +5897,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5648,27 +5927,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5679,21 +5958,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5711,7 +5987,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -5721,17 +5997,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5742,21 +6018,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5774,12 +6047,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -5817,7 +6090,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5837,27 +6115,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -5875,12 +6153,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5900,27 +6183,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -5938,12 +6221,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5963,29 +6251,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -5994,15 +6278,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6022,27 +6315,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -6053,15 +6346,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6081,12 +6383,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6112,15 +6414,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6140,12 +6451,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6171,15 +6482,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6199,27 +6519,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6233,14 +6553,15 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6258,12 +6579,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6292,14 +6613,15 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6317,27 +6639,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6348,15 +6670,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6376,22 +6707,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -6407,15 +6738,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6435,27 +6775,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6473,12 +6813,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6498,29 +6843,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -6536,12 +6877,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6561,27 +6907,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6599,12 +6945,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6624,27 +6975,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6662,12 +7013,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6687,27 +7043,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -6725,12 +7081,17 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6750,7 +7111,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -6760,17 +7121,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -6781,21 +7142,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6813,27 +7171,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -6844,21 +7202,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6876,12 +7231,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6910,14 +7265,135 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>L206</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>EC263 (Lab)</t>
         </is>
       </c>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>EC263 (Lab)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7169,7 +7645,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7582,7 +8058,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7668,12 +8144,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>38.9%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 71.4%, B: 0.0%</t>
+          <t>A: 77.8%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7695,7 +8171,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 34.7/100</t>
+          <t>Score: 35.7/100</t>
         </is>
       </c>
     </row>
@@ -8877,12 +9353,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8892,16 +9368,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASD352, EC251, EC252, EC254, CS152, CS251, CS253</t>
+          <t>EC251, EC252, EC254</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8942,11 +9418,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DE352, CS162</t>
+          <t>DE352, CS162, CS251</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -8987,11 +9463,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -9065,7 +9541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9113,26 +9589,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -9148,26 +9624,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -9183,26 +9659,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -9218,26 +9694,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -9253,26 +9729,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -9288,7 +9764,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -9298,16 +9774,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -9323,26 +9799,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -9358,12 +9834,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9373,11 +9849,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -9385,286 +9861,6 @@
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
@@ -1110,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L105]</t>
+          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,7 +5181,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5245,7 +5245,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -5339,29 +5339,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="b">
         <v>0</v>
       </c>
@@ -5373,12 +5369,12 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC263 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -5404,20 +5400,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -5426,18 +5426,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5465,17 +5473,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5493,12 +5501,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5538,7 +5546,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5561,12 +5569,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5609,11 +5617,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -5629,12 +5633,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5669,15 +5673,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -5693,12 +5701,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5761,12 +5769,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -5829,12 +5837,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5864,7 +5872,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5890,26 +5898,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5927,12 +5927,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5961,7 +5961,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -5992,22 +5992,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -6018,18 +6018,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6057,17 +6065,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6085,12 +6093,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6130,7 +6138,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6153,12 +6161,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6201,11 +6209,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="b">
         <v>0</v>
       </c>
@@ -6221,12 +6225,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6261,15 +6265,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
@@ -6285,12 +6293,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6353,12 +6361,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6421,12 +6429,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6456,7 +6464,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6482,26 +6490,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6519,12 +6519,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6553,12 +6553,12 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="N46" t="inlineStr"/>
@@ -6584,22 +6584,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6610,18 +6610,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6649,17 +6657,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6677,12 +6685,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -6722,7 +6730,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -6745,12 +6753,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6793,11 +6801,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -6813,12 +6817,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -6853,15 +6857,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -6877,12 +6885,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -6945,12 +6953,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7013,12 +7021,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7048,7 +7056,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -7074,26 +7082,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7116,22 +7116,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -7145,12 +7145,12 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -7205,7 +7205,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -7231,12 +7231,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -7265,12 +7265,12 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC263 (Lab)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -7334,66 +7334,6 @@
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -516,27 +516,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C102]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>EC261 [L406]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA263 [C102]</t>
+          <t>MA263 [C205]</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [L406]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MA263 [C102]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC262 [C102]</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
     </row>
@@ -612,22 +612,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>MA263 [C004]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -644,17 +644,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C101]</t>
+          <t>EC261 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C102]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC262 [C102]</t>
+          <t>EC262 [C004]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>63.74999999999999</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>63.74999999999999</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2084,27 +2084,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EC261 [C102]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>EC261 [L406]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA263 [C102]</t>
+          <t>MA263 [C205]</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [L406]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MA263 [C102]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC262 [C102]</t>
+          <t>EC262 [C202]</t>
         </is>
       </c>
     </row>
@@ -2212,22 +2212,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA263 [C004]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2244,12 +2244,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial) [C101]</t>
+          <t>EC261 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EC261 [C102]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC262 [C102]</t>
+          <t>EC262 [C004]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C101]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2340,27 +2340,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -2403,119 +2403,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -2523,12 +2535,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -2536,15 +2548,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2554,7 +2570,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2567,7 +2583,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2580,7 +2596,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2588,12 +2604,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2601,119 +2617,103 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2880,27 +2880,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C002, C001</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C102, C101</t>
+          <t>C004, L406, C002</t>
         </is>
       </c>
     </row>
@@ -3061,41 +3061,41 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C203, C102, C101</t>
+          <t>C004, C305, C203</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B4**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>No</t>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L406, C004</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004, C205</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>C102, L206</t>
+          <t>C004, L206, C202</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3322,7 +3322,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3333,6 +3333,11 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -3348,7 +3353,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>EC261 (Tutorial)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3360,26 +3365,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3387,23 +3392,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA262, MA261</t>
+          <t>CS307, MINOR: DSAI, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3422,7 +3427,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3430,23 +3435,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial), EC261 (Tutorial)</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3461,11 +3466,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3473,23 +3478,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC262, MINOR: Design, EC261...</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3520,7 +3525,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3532,26 +3537,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3563,10 +3568,96 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>EC262 (Lab)</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>EC261, MA261</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -3583,7 +3674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3619,47 +3710,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3689,42 +3790,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3753,42 +3862,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3812,43 +3929,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>EC261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3872,47 +4001,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3936,47 +4073,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3995,52 +4140,60 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4064,47 +4217,55 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4128,47 +4289,55 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4192,47 +4361,55 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4261,42 +4438,50 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4325,42 +4510,50 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4389,42 +4582,50 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4453,42 +4654,50 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4512,47 +4721,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4571,52 +4788,60 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4640,47 +4865,55 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>EC261</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4704,47 +4937,55 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4768,47 +5009,55 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>MA263</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4837,42 +5086,50 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>EC262</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4901,42 +5158,50 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4965,42 +5230,50 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5029,42 +5302,50 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>MA263</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>MA263</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5093,42 +5374,50 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>EC262</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>EC262</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5157,42 +5446,50 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>L206</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>EC262 (Lab)</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5221,42 +5518,50 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>L206</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>EC262 (Lab)</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5285,42 +5590,50 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5344,40 +5657,60 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5405,46 +5738,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>EC251</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5473,46 +5814,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>EC252</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5541,46 +5890,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5609,42 +5966,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5673,46 +6042,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5741,46 +6118,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5799,56 +6184,64 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5867,49 +6260,65 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5932,44 +6341,60 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5997,46 +6422,54 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6065,46 +6498,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6133,46 +6574,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6201,42 +6650,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6255,56 +6716,64 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6323,56 +6792,64 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6391,56 +6868,64 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6459,49 +6944,65 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC261 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6524,44 +7025,60 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,46 +7106,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -6657,683 +7182,55 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>3</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>CS307 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>EC263 (Lab)</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7585,7 +7482,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7998,7 +7895,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8062,12 +7959,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -9293,31 +9190,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC251, EC252, EC254</t>
+          <t>ASD352, EC251, EC252, EC254, CS152, CS251, CS253</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -9358,11 +9255,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DE352, CS162, CS251</t>
+          <t>DE352, CS162</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -9403,11 +9300,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -9481,7 +9378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9529,26 +9426,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -9564,26 +9461,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -9599,26 +9496,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30, Thu 13:00-14:30</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -9634,26 +9531,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -9669,26 +9566,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -9704,7 +9601,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -9714,16 +9611,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -9739,26 +9636,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -9774,33 +9671,313 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>HSS_B5</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>HS301</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Fri 14:30-15:30</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
@@ -516,27 +516,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC261 [L406]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA263 [C205]</t>
+          <t>EC262 [C204]</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [L406]</t>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>MA263 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>EC262 [C004]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MA263 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -708,27 +708,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C305]</t>
+          <t>CS307 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>MA261 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.74999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1280,16 +1280,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1314,16 +1314,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>EC261 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC261 [L406]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA263 [C205]</t>
+          <t>EC262 [C204]</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [L406]</t>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>MA263 [C104]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EC262 [C202]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>EC262 [C004]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>MA263 [C004]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>EC262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L206]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -2308,27 +2308,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C305]</t>
+          <t>CS307 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>MA261 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EC262 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>EC262 (Lab) [L206]</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2786,27 +2786,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**EC261**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C002</t>
         </is>
       </c>
     </row>
@@ -2927,27 +2927,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**EC261**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2962,46 +2962,46 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004, L406, C002</t>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>No</t>
@@ -3014,29 +3014,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004, C104, L406</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3056,34 +3056,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C305, C203</t>
+          <t>C004, C003</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**MA263**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -3103,34 +3103,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L406, C004</t>
+          <t>C004, C104</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**MA263**</t>
+          <t>**EC262**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3150,104 +3150,57 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C004, C205</t>
+          <t>C004, L207, C204</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>**EC262**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Total Courses: 8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Complete: 3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>Rate: 37.5%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>Labs: 2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>C004, L206, C202</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Total Courses: 9</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Complete: 2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Rate: 22.2%</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Lectures: 18</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Labs: 2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[WARN] 7 issues</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -3264,7 +3217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3365,26 +3318,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3392,42 +3345,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS307, MINOR: DSAI, MINOR: VLSI...</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3435,23 +3388,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MINOR: Cybersecurity, MA261, CS307...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3466,11 +3419,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3478,23 +3431,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA263, CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3525,7 +3478,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3537,26 +3490,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3568,38 +3521,38 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -3611,55 +3564,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>EC261, MA261</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,7 +3772,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -3896,7 +3806,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -4021,7 +3931,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4035,7 +3945,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4222,7 +4132,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4256,7 +4166,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -4294,7 +4204,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -4328,7 +4238,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -4366,7 +4276,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4400,7 +4310,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -4438,7 +4348,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4472,7 +4382,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -4505,12 +4415,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4544,12 +4454,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P12" t="b">
@@ -4572,17 +4482,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4616,7 +4526,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -4649,12 +4559,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4688,7 +4598,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -4721,12 +4631,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4760,7 +4670,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -4788,17 +4698,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -4832,7 +4742,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4865,27 +4775,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -4899,12 +4809,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4937,27 +4847,27 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -4971,12 +4881,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -5009,7 +4919,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5019,17 +4929,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -5043,7 +4953,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5081,7 +4991,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5153,27 +5063,27 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5187,17 +5097,17 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -5220,32 +5130,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5259,17 +5169,17 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC262 (Lab)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P22" t="b">
@@ -5292,32 +5202,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5331,12 +5241,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5369,27 +5279,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5403,12 +5313,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5441,27 +5351,27 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5475,17 +5385,17 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P25" t="b">
@@ -5513,27 +5423,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5547,17 +5457,17 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P26" t="b">
@@ -5580,32 +5490,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5613,18 +5523,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5662,7 +5576,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5677,7 +5591,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5695,12 +5609,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5738,7 +5652,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5776,7 +5690,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5814,7 +5728,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5852,7 +5766,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -5890,7 +5804,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5928,7 +5842,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5966,7 +5880,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -6004,7 +5918,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -6042,7 +5956,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6075,12 +5989,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -6108,17 +6022,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -6133,7 +6047,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6151,17 +6065,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -6194,7 +6108,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -6232,7 +6146,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -6270,7 +6184,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6308,7 +6222,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -6346,7 +6260,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6384,7 +6298,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -6422,7 +6336,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6460,7 +6374,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -6498,7 +6412,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6536,7 +6450,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -6574,7 +6488,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6607,12 +6521,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -6640,17 +6554,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -6665,7 +6579,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6683,17 +6597,17 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P41" t="b">
@@ -6726,7 +6640,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6741,7 +6655,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6759,12 +6673,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -6802,7 +6716,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -6840,7 +6754,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -6878,7 +6792,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -6916,7 +6830,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6954,7 +6868,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -6992,7 +6906,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -7030,7 +6944,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7068,7 +6982,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -7106,7 +7020,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -7139,12 +7053,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -7153,82 +7067,6 @@
         </is>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>3</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-      <c r="P48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7243,7 +7081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7321,12 +7159,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -7346,12 +7184,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -7658,22 +7496,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7688,7 +7526,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7710,22 +7548,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -7745,7 +7583,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7759,63 +7597,6 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>MA263</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Random Processes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7895,7 +7676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7916,11 +7697,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 6, Elective: 3</t>
+          <t>Core: 5, Elective: 3</t>
         </is>
       </c>
     </row>
@@ -7942,7 +7723,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/9 courses fully compliant</t>
+          <t>0/8 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7959,12 +7740,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7762,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>38.9%</t>
+          <t>37.8%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 77.8%, B: 0.0%</t>
+          <t>A: 75.6%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8008,7 +7789,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 35.7/100</t>
+          <t>Score: 35.3/100</t>
         </is>
       </c>
     </row>
@@ -8023,7 +7804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8129,12 +7910,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -8142,11 +7923,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -8156,12 +7937,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -8201,27 +7982,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Signals &amp; Systems</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-1-0-0-3</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8233,7 +8014,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -8243,7 +8024,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -8253,7 +8034,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
         </is>
       </c>
     </row>
@@ -8273,39 +8054,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ECE</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -8345,34 +8126,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>User Interaction (Minor)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Sandesh P</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -8417,24 +8198,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EC261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2-1-0-0-3</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -8454,14 +8235,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>No</t>
@@ -8469,7 +8250,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -8489,34 +8270,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA263</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Random Processes</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Chinmayananda A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -8526,14 +8307,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>No</t>
@@ -8541,7 +8322,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -8561,34 +8342,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>EC262</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>User Interaction (Minor)</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -8598,22 +8379,22 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -8633,12 +8414,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MA263</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Electronics Systems design - 1</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8660,7 +8441,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Pankaj</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -8680,7 +8461,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -8705,12 +8486,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Introduction of RFIC</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8718,21 +8499,21 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -8752,7 +8533,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -8777,12 +8558,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Electronics Systems design - 1</t>
+          <t>Electronic Systems engineering</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8804,7 +8585,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Mallikarjun Kande</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -8849,12 +8630,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Introduction of RFIC</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8876,7 +8657,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -8921,12 +8702,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Electronic Systems engineering</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8948,7 +8729,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Mallikarjun Kande</t>
+          <t>Vivekraj</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -8972,150 +8753,6 @@
         </is>
       </c>
       <c r="P13" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Data Science with Python</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2D Computer Graphics</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Vivekraj</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>ECE</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>

--- a/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_ECE_pre_mid_timetable.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -516,27 +516,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [L406]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC262 [C204]</t>
+          <t>EC262 [C205]</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MA263 [C104]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C205]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>EC262 [C205]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L207]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C104]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C004]</t>
+          <t>MA261 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L207]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>62.5</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>26.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.25</v>
+        <v>22.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1314,16 +1314,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>13.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2084,27 +2084,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [C101]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EC261 [C004]</t>
+          <t>EC261 [L406]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EC262 [C204]</t>
+          <t>EC262 [C205]</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MA263 [C104]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MA261 [C205]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC262 [C004]</t>
+          <t>EC262 [C205]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA263 [C004]</t>
+          <t>MA263 [C102]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L207]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial) [C104]</t>
+          <t>CS307 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial) [C004]</t>
+          <t>MA261 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EC262 (Lab) [L207]</t>
+          <t>EC262 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2340,27 +2340,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004, C002</t>
+          <t>C101, L406, C002</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C004, C104, L406</t>
+          <t>C305, C104, L406</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C003</t>
+          <t>C004, C205</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C104</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C004, L207, C204</t>
+          <t>C205, L105</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3318,22 +3318,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3361,26 +3361,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3388,23 +3388,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MA261, CS307...</t>
+          <t>EC261</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3431,23 +3431,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MA263, CS307 (Tutorial)</t>
+          <t>MINOR: Generative Ai, MINOR: Design, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3462,11 +3462,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3474,42 +3474,42 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC262</t>
+          <t>MINOR: Generative Ai, MINOR: Design, CS307...</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3517,23 +3517,23 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EC262 (Lab)</t>
+          <t>EC262, MA261, MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3564,12 +3564,98 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>EC262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CS307, EC261</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3705,17 +3791,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3729,7 +3815,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3777,17 +3863,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -3801,7 +3887,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3931,7 +4017,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3945,7 +4031,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3993,17 +4079,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4017,7 +4103,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4065,17 +4151,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -4089,7 +4175,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -4137,17 +4223,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4161,7 +4247,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4281,17 +4367,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4305,7 +4391,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4353,17 +4439,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -4377,7 +4463,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4425,17 +4511,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4449,7 +4535,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4497,17 +4583,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4521,7 +4607,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4569,17 +4655,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4593,7 +4679,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4641,17 +4727,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4665,7 +4751,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4713,17 +4799,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4737,7 +4823,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4785,17 +4871,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -4809,7 +4895,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4857,17 +4943,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -4881,7 +4967,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4953,7 +5039,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5001,17 +5087,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5025,7 +5111,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5073,7 +5159,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -5083,7 +5169,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5097,7 +5183,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5145,7 +5231,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -5155,7 +5241,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5169,7 +5255,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5217,17 +5303,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5241,7 +5327,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5289,17 +5375,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5313,7 +5399,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5385,7 +5471,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5433,17 +5519,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5457,7 +5543,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5515,7 +5601,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5533,7 +5619,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5591,7 +5677,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5609,7 +5695,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5667,7 +5753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5685,7 +5771,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5743,7 +5829,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -5761,7 +5847,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5819,7 +5905,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -5837,7 +5923,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5913,7 +5999,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5971,7 +6057,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -5989,7 +6075,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6047,7 +6133,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6065,7 +6151,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6123,7 +6209,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6141,7 +6227,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6199,7 +6285,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6217,7 +6303,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6275,7 +6361,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6293,7 +6379,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6351,7 +6437,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6369,7 +6455,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6445,7 +6531,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6503,7 +6589,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6521,7 +6607,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6579,7 +6665,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6597,7 +6683,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6655,7 +6741,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6673,7 +6759,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6731,7 +6817,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -6749,7 +6835,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6807,7 +6893,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -6825,7 +6911,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6883,7 +6969,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -6901,7 +6987,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6977,7 +7063,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7035,7 +7121,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7053,7 +7139,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7676,7 +7762,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7740,12 +7826,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7/36</t>
+          <t>9/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 19.4%</t>
+          <t>Utilization: 25.0%</t>
         </is>
       </c>
     </row>
